--- a/data/trans_orig/P25D_R_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4583</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13050</v>
+        <v>14276</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006658364482166182</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001545967445423306</v>
+        <v>0.001530436844444229</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01895755898825626</v>
+        <v>0.0207390437345883</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>1537</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4098</v>
+        <v>4504</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002102485107581448</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0005245122811690427</v>
+        <v>0.0005298299454152595</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005605987126014619</v>
+        <v>0.006161159895006027</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>6120</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1851</v>
+        <v>2335</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14514</v>
+        <v>13806</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004311905397659018</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001304266051726792</v>
+        <v>0.001645257094733877</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01022497768568332</v>
+        <v>0.009726593429280138</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>683785</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>675318</v>
+        <v>674092</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>687304</v>
+        <v>687314</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9933416355178339</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9810424410117444</v>
+        <v>0.9792609562654125</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9984540325545767</v>
+        <v>0.9984695631555559</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1233</v>
@@ -833,19 +833,19 @@
         <v>729527</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>726966</v>
+        <v>726560</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>730681</v>
+        <v>730677</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9978975148924186</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9943940128739857</v>
+        <v>0.993838840104994</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9994754877188311</v>
+        <v>0.9994701700545848</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1958</v>
@@ -854,19 +854,19 @@
         <v>1413312</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1404918</v>
+        <v>1405626</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1417581</v>
+        <v>1417097</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9956880946023411</v>
+        <v>0.995688094602341</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9897750223143166</v>
+        <v>0.9902734065707198</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9986957339482732</v>
+        <v>0.9983547429052662</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>8400</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3543</v>
+        <v>3484</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17206</v>
+        <v>18559</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00800820236977774</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003378061232986152</v>
+        <v>0.003321660551543595</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01640343689774481</v>
+        <v>0.01769371372812034</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -979,19 +979,19 @@
         <v>8966</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4132</v>
+        <v>4413</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17837</v>
+        <v>19626</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.008378216372991906</v>
+        <v>0.008378216372991907</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003861203625713133</v>
+        <v>0.004124161362852544</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01666773940330517</v>
+        <v>0.01833963169538311</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1000,19 +1000,19 @@
         <v>17366</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10338</v>
+        <v>10564</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29739</v>
+        <v>29230</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.008195063129874669</v>
+        <v>0.008195063129874667</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004878364056803655</v>
+        <v>0.004985283124828262</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01403400768557939</v>
+        <v>0.01379359793128294</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1040517</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1031711</v>
+        <v>1030358</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1045374</v>
+        <v>1045433</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9919917976302224</v>
+        <v>0.9919917976302225</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9835965631022555</v>
+        <v>0.9823062862718797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.996621938767014</v>
+        <v>0.9966783394484564</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1505</v>
@@ -1050,19 +1050,19 @@
         <v>1061184</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1052313</v>
+        <v>1050524</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1066018</v>
+        <v>1065737</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9916217836270079</v>
+        <v>0.9916217836270084</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9833322605966948</v>
+        <v>0.9816603683046169</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9961387963742867</v>
+        <v>0.9958758386371476</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2463</v>
@@ -1071,19 +1071,19 @@
         <v>2101701</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2089328</v>
+        <v>2089837</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2108729</v>
+        <v>2108503</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9918049368701254</v>
+        <v>0.9918049368701252</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9859659923144206</v>
+        <v>0.9862064020687172</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9951216359431961</v>
+        <v>0.9950147168751716</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>9358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3560</v>
+        <v>3630</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21704</v>
+        <v>23246</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0116700549335872</v>
+        <v>0.01167005493358719</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00443902894287442</v>
+        <v>0.00452703488811831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02706623103535589</v>
+        <v>0.02898869005373761</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1196,19 +1196,19 @@
         <v>8083</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3355</v>
+        <v>3330</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17651</v>
+        <v>16539</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009950806590798247</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00413104480574882</v>
+        <v>0.004100180003195173</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02173103605708691</v>
+        <v>0.02036183105057796</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1217,19 +1217,19 @@
         <v>17441</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9226</v>
+        <v>8968</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30902</v>
+        <v>32071</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01080491158256918</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005715514153536592</v>
+        <v>0.005555557929654265</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01914416007458972</v>
+        <v>0.01986853208870328</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>792537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>780191</v>
+        <v>778649</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>798335</v>
+        <v>798265</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9883299450664129</v>
+        <v>0.9883299450664128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9729337689646441</v>
+        <v>0.9710113099462623</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9955609710571255</v>
+        <v>0.9954729651118818</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1040</v>
@@ -1267,19 +1267,19 @@
         <v>804176</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>794608</v>
+        <v>795720</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>808904</v>
+        <v>808929</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9900491934092017</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9782689639429131</v>
+        <v>0.9796381689494231</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9958689551942509</v>
+        <v>0.9958998199968051</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1709</v>
@@ -1288,19 +1288,19 @@
         <v>1596713</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1583252</v>
+        <v>1582083</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1604928</v>
+        <v>1605186</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9891950884174309</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9808558399254101</v>
+        <v>0.9801314679112967</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9942844858464635</v>
+        <v>0.9944444420703458</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>20265</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10968</v>
+        <v>11075</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35779</v>
+        <v>35160</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0206196326690336</v>
+        <v>0.02061963266903361</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01115982979997687</v>
+        <v>0.0112692132713215</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03640546654851033</v>
+        <v>0.0357763016595869</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1413,19 +1413,19 @@
         <v>7358</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3557</v>
+        <v>3919</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12743</v>
+        <v>12684</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.006601392277711634</v>
+        <v>0.006601392277711635</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003191600520878424</v>
+        <v>0.00351564859998056</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01143239740515288</v>
+        <v>0.01137955397883837</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -1434,19 +1434,19 @@
         <v>27622</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18038</v>
+        <v>17903</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43830</v>
+        <v>46773</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01317000873174617</v>
+        <v>0.01317000873174616</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008600098550482395</v>
+        <v>0.008535753842846468</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02089734924474599</v>
+        <v>0.02230061589541712</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>962517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>947003</v>
+        <v>947622</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>971814</v>
+        <v>971707</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9793803673309665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.96359453345149</v>
+        <v>0.9642236983404131</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.988840170200023</v>
+        <v>0.9887307867286785</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1545</v>
@@ -1484,19 +1484,19 @@
         <v>1107239</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1101854</v>
+        <v>1101913</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1111040</v>
+        <v>1110678</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9933986077222885</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9885676025948467</v>
+        <v>0.9886204460211615</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9968083994791214</v>
+        <v>0.9964843514000189</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2529</v>
@@ -1505,19 +1505,19 @@
         <v>2069757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2053549</v>
+        <v>2050606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2079341</v>
+        <v>2079476</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9868299912682539</v>
+        <v>0.9868299912682538</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9791026507552539</v>
+        <v>0.9776993841045828</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9913999014495175</v>
+        <v>0.9914642461571535</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>42606</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28576</v>
+        <v>28999</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64423</v>
+        <v>62198</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01209726462553055</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008113522734029804</v>
+        <v>0.008233774452440884</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0182918074504673</v>
+        <v>0.01766016724044937</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1630,19 +1630,19 @@
         <v>25944</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17677</v>
+        <v>17216</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37860</v>
+        <v>37460</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.006958968628912842</v>
+        <v>0.006958968628912843</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004741705413575634</v>
+        <v>0.004617860481097255</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01015542746501573</v>
+        <v>0.01004805443916405</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -1651,19 +1651,19 @@
         <v>68550</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53718</v>
+        <v>50761</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>90389</v>
+        <v>89719</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.009455079850977367</v>
+        <v>0.00945507985097737</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007409341588647454</v>
+        <v>0.007001526036621513</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01246733929657033</v>
+        <v>0.0123749508699859</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3479357</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3457540</v>
+        <v>3459765</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3493387</v>
+        <v>3492964</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9879027353744693</v>
+        <v>0.9879027353744695</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9817081925495322</v>
+        <v>0.9823398327595505</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.99188647726597</v>
+        <v>0.9917662255475592</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5323</v>
@@ -1701,19 +1701,19 @@
         <v>3702126</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3690210</v>
+        <v>3690610</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3710393</v>
+        <v>3710854</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9930410313710869</v>
+        <v>0.9930410313710872</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9898445725349845</v>
+        <v>0.9899519455608361</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9952582945864245</v>
+        <v>0.9953821395189028</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8659</v>
@@ -1722,19 +1722,19 @@
         <v>7181482</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7159643</v>
+        <v>7160313</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7196314</v>
+        <v>7199271</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9905449201490225</v>
+        <v>0.990544920149023</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9875326607034297</v>
+        <v>0.9876250491300141</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9925906584113525</v>
+        <v>0.9929984739633785</v>
       </c>
     </row>
     <row r="18">
